--- a/src/doc/Выгрузка операций 2.xlsx
+++ b/src/doc/Выгрузка операций 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobovalOV\Desktop\Для нового ПО\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\komita\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="175">
   <si>
     <t>Признак активности клиента</t>
   </si>
@@ -990,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CQ5"/>
+  <dimension ref="A1:CQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="CU4" sqref="CU4"/>
+    <sheetView tabSelected="1" topLeftCell="AD4" workbookViewId="0">
+      <selection activeCell="AZ7" sqref="AZ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,6 +2079,442 @@
       <c r="CP5" s="2"/>
       <c r="CQ5" s="2"/>
     </row>
+    <row r="6" spans="1:95" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43335</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="2">
+        <v>643</v>
+      </c>
+      <c r="H6" s="2">
+        <v>643</v>
+      </c>
+      <c r="I6" s="2">
+        <v>111222</v>
+      </c>
+      <c r="J6" s="2">
+        <v>92</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N6" s="2">
+        <v>12</v>
+      </c>
+      <c r="O6" s="2">
+        <v>3</v>
+      </c>
+      <c r="P6" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>643</v>
+      </c>
+      <c r="R6" s="2">
+        <v>643</v>
+      </c>
+      <c r="S6" s="2">
+        <v>92</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="W6" s="2">
+        <v>12</v>
+      </c>
+      <c r="X6" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="3">
+        <v>43334</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>43334</v>
+      </c>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2">
+        <v>643</v>
+      </c>
+      <c r="BH6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BI6" s="3">
+        <v>25569</v>
+      </c>
+      <c r="BJ6" s="2">
+        <v>643</v>
+      </c>
+      <c r="BK6" s="2">
+        <v>36</v>
+      </c>
+      <c r="BL6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BM6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BN6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="2">
+        <v>21</v>
+      </c>
+      <c r="BP6" s="2"/>
+      <c r="BQ6" s="2">
+        <v>3601</v>
+      </c>
+      <c r="BR6" s="2">
+        <v>111222</v>
+      </c>
+      <c r="BS6" s="3">
+        <v>36892</v>
+      </c>
+      <c r="BT6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BU6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BV6" s="2"/>
+      <c r="BW6" s="2"/>
+      <c r="BX6" s="2"/>
+      <c r="BY6" s="2"/>
+      <c r="BZ6" s="2"/>
+      <c r="CA6" s="2"/>
+      <c r="CB6" s="2"/>
+      <c r="CC6" s="2"/>
+      <c r="CD6" s="2"/>
+      <c r="CE6" s="2"/>
+      <c r="CF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="2"/>
+      <c r="CH6" s="2"/>
+      <c r="CI6" s="2"/>
+      <c r="CJ6" s="2"/>
+      <c r="CK6" s="2"/>
+      <c r="CL6" s="2">
+        <v>2</v>
+      </c>
+      <c r="CM6" s="2"/>
+      <c r="CN6" s="2"/>
+      <c r="CO6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CP6" s="2"/>
+      <c r="CQ6" s="2"/>
+    </row>
+    <row r="7" spans="1:95" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43336</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="2">
+        <v>643</v>
+      </c>
+      <c r="H7" s="2">
+        <v>643</v>
+      </c>
+      <c r="I7" s="2">
+        <v>111222</v>
+      </c>
+      <c r="J7" s="2">
+        <v>92</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N7" s="2">
+        <v>12</v>
+      </c>
+      <c r="O7" s="2">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>643</v>
+      </c>
+      <c r="R7" s="2">
+        <v>643</v>
+      </c>
+      <c r="S7" s="2">
+        <v>92</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="W7" s="2">
+        <v>12</v>
+      </c>
+      <c r="X7" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="3">
+        <v>43334</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>43334</v>
+      </c>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2">
+        <v>643</v>
+      </c>
+      <c r="BH7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BI7" s="3">
+        <v>25569</v>
+      </c>
+      <c r="BJ7" s="2">
+        <v>643</v>
+      </c>
+      <c r="BK7" s="2">
+        <v>36</v>
+      </c>
+      <c r="BL7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BM7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BN7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="2">
+        <v>21</v>
+      </c>
+      <c r="BP7" s="2"/>
+      <c r="BQ7" s="2">
+        <v>3601</v>
+      </c>
+      <c r="BR7" s="2">
+        <v>111222</v>
+      </c>
+      <c r="BS7" s="3">
+        <v>36892</v>
+      </c>
+      <c r="BT7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BU7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BV7" s="2"/>
+      <c r="BW7" s="2"/>
+      <c r="BX7" s="2"/>
+      <c r="BY7" s="2"/>
+      <c r="BZ7" s="2"/>
+      <c r="CA7" s="2"/>
+      <c r="CB7" s="2"/>
+      <c r="CC7" s="2"/>
+      <c r="CD7" s="2"/>
+      <c r="CE7" s="2"/>
+      <c r="CF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="2"/>
+      <c r="CH7" s="2"/>
+      <c r="CI7" s="2"/>
+      <c r="CJ7" s="2"/>
+      <c r="CK7" s="2"/>
+      <c r="CL7" s="2">
+        <v>2</v>
+      </c>
+      <c r="CM7" s="2"/>
+      <c r="CN7" s="2"/>
+      <c r="CO7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CP7" s="2"/>
+      <c r="CQ7" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
